--- a/data/trans_orig/IMC_inf_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_inf_R-Dificultad-trans_orig.xlsx
@@ -734,7 +734,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -948,7 +948,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -8106,7 +8106,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">

--- a/data/trans_orig/IMC_inf_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_inf_R-Dificultad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2007" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2012" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2007" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2012" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2023" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
